--- a/data/First 100 Articles scored ZY.xlsx
+++ b/data/First 100 Articles scored ZY.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yavic.1\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$I$101</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -3975,8 +3969,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3987,10 +3982,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4001,7 +4001,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -4013,27 +4020,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="11">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4044,10 +4071,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4074,116 +4101,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4195,172 +4188,199 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="53.42578125" customWidth="1"/>
-    <col min="6" max="6" width="104.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" style="8" width="4.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="53.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="104.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="12.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="60" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -4372,3121 +4392,2917 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="554.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>2000</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="388.5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>2000</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C3" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
         <v>3</v>
       </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="I3" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="184.5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>2000</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>2</v>
       </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="285" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="I4" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="248.25">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>2000</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C5" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
         <v>3</v>
       </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="390" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="I5" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="337.5">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
-        <v>2000</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C6" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
         <v>4</v>
       </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="I6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="184.5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
-        <v>2000</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C7" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="300" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="261">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
-        <v>2000</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C8" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>3</v>
       </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="H8" s="4">
+        <v>5</v>
+      </c>
+      <c r="I8" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="503.25">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
-        <v>2000</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C9" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
         <v>3</v>
       </c>
-      <c r="I9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="I9" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="720">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>2000</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C10" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="I10">
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5</v>
+      </c>
+      <c r="I10" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="681.75">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
-        <v>2000</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C11" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="I11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="375" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>5</v>
+      </c>
+      <c r="I11" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="324.75">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12">
-        <v>2000</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="C12" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="I12">
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>5</v>
+      </c>
+      <c r="I12" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="255" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="222.75">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C13">
-        <v>2000</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C13" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>5</v>
-      </c>
-      <c r="I13">
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="694.5">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C14">
-        <v>2000</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C14" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
         <v>4</v>
       </c>
-      <c r="I14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="345" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="I14" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="299.25">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C15">
-        <v>2000</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="C15" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
         <v>3</v>
       </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="300" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="I15" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="261">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C16">
-        <v>2000</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C16" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="758.25">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C17">
-        <v>2000</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="C17" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="4">
         <v>2</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="4">
         <v>3</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="630.75">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C18">
-        <v>2000</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="C18" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
         <v>3</v>
       </c>
-      <c r="I18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="375" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="I18" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="324.75">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C19">
-        <v>2000</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="C19" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="414">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C20">
-        <v>2000</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="C20" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
         <v>4</v>
       </c>
-      <c r="I20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="I20" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C21">
-        <v>2000</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="C21" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
         <v>3</v>
       </c>
-      <c r="I21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="I21" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C22">
-        <v>2000</v>
-      </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="C22" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="330" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C23">
-        <v>2000</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="C23" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
         <v>3</v>
       </c>
-      <c r="I23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="I23" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C24">
-        <v>2000</v>
-      </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="C24" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
         <v>3</v>
       </c>
-      <c r="I24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="I24" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C25">
-        <v>2000</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="C25" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>5</v>
-      </c>
-      <c r="I25">
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>5</v>
+      </c>
+      <c r="I25" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="300" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C26">
-        <v>2000</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="C26" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C27">
-        <v>2000</v>
-      </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="C27" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>5</v>
-      </c>
-      <c r="I27">
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
+        <v>5</v>
+      </c>
+      <c r="I27" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="405" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C28">
-        <v>2000</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="C28" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4">
         <v>4</v>
       </c>
-      <c r="I28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="I28" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C29">
-        <v>2000</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="C29" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>5</v>
-      </c>
-      <c r="I29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4">
+        <v>5</v>
+      </c>
+      <c r="I29" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C30">
-        <v>2000</v>
-      </c>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="C30" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>5</v>
-      </c>
-      <c r="I30">
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="4">
+        <v>5</v>
+      </c>
+      <c r="I30" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C31">
-        <v>2000</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="C31" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4">
         <v>4</v>
       </c>
-      <c r="I31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="I31" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="4">
         <v>2001</v>
       </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>5</v>
-      </c>
-      <c r="I32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="405" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4">
+        <v>5</v>
+      </c>
+      <c r="I32" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="4">
         <v>2001</v>
       </c>
-      <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="315" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="4">
         <v>2001</v>
       </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4">
         <v>3</v>
       </c>
-      <c r="I34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="I34" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="4">
         <v>2001</v>
       </c>
-      <c r="D35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="D35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="4">
         <v>4</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="4">
         <v>3</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="4">
         <v>2001</v>
       </c>
-      <c r="D36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>5</v>
-      </c>
-      <c r="I36">
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4">
+        <v>5</v>
+      </c>
+      <c r="I36" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="4">
         <v>2001</v>
       </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>5</v>
-      </c>
-      <c r="I37">
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4">
+        <v>5</v>
+      </c>
+      <c r="I37" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="4">
         <v>2001</v>
       </c>
-      <c r="D38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4">
         <v>3</v>
       </c>
-      <c r="I38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="I38" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="4">
         <v>2001</v>
       </c>
-      <c r="D39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="D39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="270" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="4">
         <v>2001</v>
       </c>
-      <c r="D40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="4">
         <v>3</v>
       </c>
-      <c r="I40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="I40" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="4">
         <v>2001</v>
       </c>
-      <c r="D41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="4">
         <v>2001</v>
       </c>
-      <c r="D42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="D42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+      <c r="H42" s="4">
+        <v>1</v>
+      </c>
+      <c r="I42" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="4">
         <v>2001</v>
       </c>
-      <c r="D43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="4">
         <v>3</v>
       </c>
-      <c r="H43">
-        <v>5</v>
-      </c>
-      <c r="I43">
+      <c r="H43" s="4">
+        <v>5</v>
+      </c>
+      <c r="I43" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="4">
         <v>2001</v>
       </c>
-      <c r="D44" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4">
         <v>3</v>
       </c>
-      <c r="I44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="I44" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="4">
         <v>2001</v>
       </c>
-      <c r="D45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="D45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4">
         <v>3</v>
       </c>
-      <c r="I45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="300" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="I45" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="4">
         <v>2001</v>
       </c>
-      <c r="D46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="D46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4">
         <v>2</v>
       </c>
-      <c r="I46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="240" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="I46" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="4">
         <v>2001</v>
       </c>
-      <c r="D47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="I47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="270" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="G47" s="4">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4">
+        <v>1</v>
+      </c>
+      <c r="I47" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="4">
         <v>2001</v>
       </c>
-      <c r="D48" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="G48" s="4">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4">
+        <v>1</v>
+      </c>
+      <c r="I48" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="4">
         <v>2001</v>
       </c>
-      <c r="D49" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49">
+      <c r="G49" s="4">
+        <v>1</v>
+      </c>
+      <c r="H49" s="4">
         <v>3</v>
       </c>
-      <c r="I49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="240" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="I49" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="4">
         <v>2001</v>
       </c>
-      <c r="D50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50">
+      <c r="G50" s="4">
+        <v>1</v>
+      </c>
+      <c r="H50" s="4">
         <v>3</v>
       </c>
-      <c r="I50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="I50" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="4">
         <v>2001</v>
       </c>
-      <c r="D51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="D51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
+      <c r="G51" s="4">
+        <v>1</v>
+      </c>
+      <c r="H51" s="4">
         <v>3</v>
       </c>
-      <c r="I51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="I51" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C52">
-        <v>2000</v>
-      </c>
-      <c r="D52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="C52" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>5</v>
-      </c>
-      <c r="I52">
+      <c r="G52" s="4">
+        <v>1</v>
+      </c>
+      <c r="H52" s="4">
+        <v>5</v>
+      </c>
+      <c r="I52" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C53">
-        <v>2000</v>
-      </c>
-      <c r="D53" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="C53" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>5</v>
-      </c>
-      <c r="I53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="375" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="G53" s="4">
+        <v>1</v>
+      </c>
+      <c r="H53" s="4">
+        <v>5</v>
+      </c>
+      <c r="I53" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C54">
-        <v>2000</v>
-      </c>
-      <c r="D54" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="C54" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="4">
         <v>2</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="4">
         <v>4</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="360" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C55">
-        <v>2000</v>
-      </c>
-      <c r="D55" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="C55" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>5</v>
-      </c>
-      <c r="I55">
+      <c r="G55" s="4">
+        <v>1</v>
+      </c>
+      <c r="H55" s="4">
+        <v>5</v>
+      </c>
+      <c r="I55" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C56">
-        <v>2000</v>
-      </c>
-      <c r="D56" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="C56" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56">
+      <c r="G56" s="4">
+        <v>1</v>
+      </c>
+      <c r="H56" s="4">
         <v>4</v>
       </c>
-      <c r="I56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="I56" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C57">
-        <v>2000</v>
-      </c>
-      <c r="D57" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="C57" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57">
+      <c r="G57" s="4">
+        <v>1</v>
+      </c>
+      <c r="H57" s="4">
         <v>3</v>
       </c>
-      <c r="I57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="I57" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C58">
-        <v>2000</v>
-      </c>
-      <c r="D58" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="C58" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="4">
         <v>2</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="4">
         <v>4</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C59">
-        <v>2000</v>
-      </c>
-      <c r="D59" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="C59" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59">
+      <c r="G59" s="4">
+        <v>1</v>
+      </c>
+      <c r="H59" s="4">
         <v>3</v>
       </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="I59" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C60">
-        <v>2000</v>
-      </c>
-      <c r="D60" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="C60" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>5</v>
-      </c>
-      <c r="I60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="G60" s="4">
+        <v>1</v>
+      </c>
+      <c r="H60" s="4">
+        <v>5</v>
+      </c>
+      <c r="I60" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+      <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C61">
-        <v>2000</v>
-      </c>
-      <c r="D61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="C61" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>5</v>
-      </c>
-      <c r="I61">
+      <c r="G61" s="4">
+        <v>1</v>
+      </c>
+      <c r="H61" s="4">
+        <v>5</v>
+      </c>
+      <c r="I61" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+      <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C62">
-        <v>2000</v>
-      </c>
-      <c r="D62" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="C62" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62">
+      <c r="G62" s="4">
+        <v>1</v>
+      </c>
+      <c r="H62" s="4">
         <v>4</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+      <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C63">
-        <v>2000</v>
-      </c>
-      <c r="D63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="C63" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63">
-        <v>5</v>
-      </c>
-      <c r="I63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="G63" s="4">
+        <v>1</v>
+      </c>
+      <c r="H63" s="4">
+        <v>5</v>
+      </c>
+      <c r="I63" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+      <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C64">
-        <v>2000</v>
-      </c>
-      <c r="D64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="C64" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>5</v>
-      </c>
-      <c r="I64">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="G64" s="4">
+        <v>1</v>
+      </c>
+      <c r="H64" s="4">
+        <v>5</v>
+      </c>
+      <c r="I64" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+      <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C65">
-        <v>2000</v>
-      </c>
-      <c r="D65" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="C65" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65">
-        <v>5</v>
-      </c>
-      <c r="I65">
+      <c r="G65" s="4">
+        <v>1</v>
+      </c>
+      <c r="H65" s="4">
+        <v>5</v>
+      </c>
+      <c r="I65" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+      <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C66">
-        <v>2000</v>
-      </c>
-      <c r="D66" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="C66" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>5</v>
-      </c>
-      <c r="I66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="G66" s="4">
+        <v>1</v>
+      </c>
+      <c r="H66" s="4">
+        <v>5</v>
+      </c>
+      <c r="I66" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+      <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C67">
-        <v>2000</v>
-      </c>
-      <c r="D67" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="C67" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67">
+      <c r="G67" s="4">
+        <v>1</v>
+      </c>
+      <c r="H67" s="4">
         <v>2</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+      <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C68">
-        <v>2000</v>
-      </c>
-      <c r="D68" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="C68" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-      <c r="I68">
+      <c r="G68" s="4">
+        <v>1</v>
+      </c>
+      <c r="H68" s="4">
+        <v>1</v>
+      </c>
+      <c r="I68" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+      <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C69">
-        <v>2000</v>
-      </c>
-      <c r="D69" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="C69" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>5</v>
-      </c>
-      <c r="I69">
+      <c r="G69" s="4">
+        <v>1</v>
+      </c>
+      <c r="H69" s="4">
+        <v>5</v>
+      </c>
+      <c r="I69" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="315" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+      <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C70">
-        <v>2000</v>
-      </c>
-      <c r="D70" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="C70" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="4">
         <v>2</v>
       </c>
-      <c r="H70">
-        <v>5</v>
-      </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="H70" s="4">
+        <v>5</v>
+      </c>
+      <c r="I70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+      <c r="A71" s="4">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C71">
-        <v>2000</v>
-      </c>
-      <c r="D71" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="C71" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71">
+      <c r="G71" s="4">
+        <v>1</v>
+      </c>
+      <c r="H71" s="4">
         <v>4</v>
       </c>
-      <c r="I71">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="I71" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+      <c r="A72" s="4">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C72">
-        <v>2000</v>
-      </c>
-      <c r="D72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="C72" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <v>5</v>
-      </c>
-      <c r="I72">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="G72" s="4">
+        <v>1</v>
+      </c>
+      <c r="H72" s="4">
+        <v>5</v>
+      </c>
+      <c r="I72" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+      <c r="A73" s="4">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C73">
-        <v>2000</v>
-      </c>
-      <c r="D73" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="C73" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="4">
         <v>2</v>
       </c>
-      <c r="H73">
-        <v>5</v>
-      </c>
-      <c r="I73">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="H73" s="4">
+        <v>5</v>
+      </c>
+      <c r="I73" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+      <c r="A74" s="4">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C74">
-        <v>2000</v>
-      </c>
-      <c r="D74" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="C74" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="4">
         <v>2</v>
       </c>
-      <c r="H74">
-        <v>5</v>
-      </c>
-      <c r="I74">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="H74" s="4">
+        <v>5</v>
+      </c>
+      <c r="I74" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+      <c r="A75" s="4">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C75">
-        <v>2000</v>
-      </c>
-      <c r="D75" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="C75" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="4">
         <v>3</v>
       </c>
-      <c r="H75">
-        <v>5</v>
-      </c>
-      <c r="I75">
+      <c r="H75" s="4">
+        <v>5</v>
+      </c>
+      <c r="I75" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+      <c r="A76" s="4">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C76">
-        <v>2000</v>
-      </c>
-      <c r="D76" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="C76" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="H76">
+      <c r="G76" s="4">
+        <v>1</v>
+      </c>
+      <c r="H76" s="4">
         <v>2</v>
       </c>
-      <c r="I76">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="I76" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+      <c r="A77" s="4">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C77">
-        <v>2000</v>
-      </c>
-      <c r="D77" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="C77" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77">
+      <c r="G77" s="4">
+        <v>1</v>
+      </c>
+      <c r="H77" s="4">
         <v>2</v>
       </c>
-      <c r="I77">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="I77" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+      <c r="A78" s="4">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C78">
-        <v>2000</v>
-      </c>
-      <c r="D78" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="C78" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="4">
         <v>2</v>
       </c>
-      <c r="H78">
-        <v>5</v>
-      </c>
-      <c r="I78">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="H78" s="4">
+        <v>5</v>
+      </c>
+      <c r="I78" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+      <c r="A79" s="4">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C79">
-        <v>2000</v>
-      </c>
-      <c r="D79" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="C79" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="4">
         <v>3</v>
       </c>
-      <c r="H79">
-        <v>5</v>
-      </c>
-      <c r="I79">
+      <c r="H79" s="4">
+        <v>5</v>
+      </c>
+      <c r="I79" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+      <c r="A80" s="4">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C80">
-        <v>2000</v>
-      </c>
-      <c r="D80" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="C80" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F80" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>5</v>
-      </c>
-      <c r="I80">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="G80" s="4">
+        <v>1</v>
+      </c>
+      <c r="H80" s="4">
+        <v>5</v>
+      </c>
+      <c r="I80" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+      <c r="A81" s="4">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C81">
-        <v>2000</v>
-      </c>
-      <c r="D81" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="C81" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>5</v>
-      </c>
-      <c r="I81">
+      <c r="G81" s="4">
+        <v>1</v>
+      </c>
+      <c r="H81" s="4">
+        <v>5</v>
+      </c>
+      <c r="I81" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+      <c r="A82" s="4">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C82">
-        <v>2000</v>
-      </c>
-      <c r="D82" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="C82" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>5</v>
-      </c>
-      <c r="I82">
+      <c r="G82" s="4">
+        <v>1</v>
+      </c>
+      <c r="H82" s="4">
+        <v>5</v>
+      </c>
+      <c r="I82" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+      <c r="A83" s="4">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C83">
-        <v>2000</v>
-      </c>
-      <c r="D83" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="C83" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F83" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="H83">
+      <c r="G83" s="4">
+        <v>1</v>
+      </c>
+      <c r="H83" s="4">
         <v>4</v>
       </c>
-      <c r="I83">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="I83" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+      <c r="A84" s="4">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C84">
-        <v>2000</v>
-      </c>
-      <c r="D84" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="C84" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F84" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>5</v>
-      </c>
-      <c r="I84">
+      <c r="G84" s="4">
+        <v>1</v>
+      </c>
+      <c r="H84" s="4">
+        <v>5</v>
+      </c>
+      <c r="I84" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+      <c r="A85" s="4">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C85">
-        <v>2000</v>
-      </c>
-      <c r="D85" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="C85" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F85" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85">
+      <c r="G85" s="4">
+        <v>1</v>
+      </c>
+      <c r="H85" s="4">
         <v>4</v>
       </c>
-      <c r="I85">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="I85" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+      <c r="A86" s="4">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C86">
-        <v>2000</v>
-      </c>
-      <c r="D86" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="C86" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F86" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <v>5</v>
-      </c>
-      <c r="I86">
+      <c r="G86" s="4">
+        <v>1</v>
+      </c>
+      <c r="H86" s="4">
+        <v>5</v>
+      </c>
+      <c r="I86" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+      <c r="A87" s="4">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C87">
-        <v>2000</v>
-      </c>
-      <c r="D87" t="s">
-        <v>10</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="C87" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87">
-        <v>5</v>
-      </c>
-      <c r="I87">
+      <c r="G87" s="4">
+        <v>1</v>
+      </c>
+      <c r="H87" s="4">
+        <v>5</v>
+      </c>
+      <c r="I87" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+      <c r="A88" s="4">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C88">
-        <v>2000</v>
-      </c>
-      <c r="D88" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="C88" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F88" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>5</v>
-      </c>
-      <c r="I88">
+      <c r="G88" s="4">
+        <v>1</v>
+      </c>
+      <c r="H88" s="4">
+        <v>5</v>
+      </c>
+      <c r="I88" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+      <c r="A89" s="4">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C89">
-        <v>2000</v>
-      </c>
-      <c r="D89" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="C89" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="4">
         <v>2</v>
       </c>
-      <c r="H89">
-        <v>5</v>
-      </c>
-      <c r="I89">
+      <c r="H89" s="4">
+        <v>5</v>
+      </c>
+      <c r="I89" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+      <c r="A90" s="4">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C90">
-        <v>2000</v>
-      </c>
-      <c r="D90" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="C90" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>5</v>
-      </c>
-      <c r="I90">
+      <c r="G90" s="4">
+        <v>1</v>
+      </c>
+      <c r="H90" s="4">
+        <v>5</v>
+      </c>
+      <c r="I90" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+      <c r="A91" s="4">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C91">
-        <v>2000</v>
-      </c>
-      <c r="D91" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="C91" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F91" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91">
-        <v>5</v>
-      </c>
-      <c r="I91">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="G91" s="4">
+        <v>1</v>
+      </c>
+      <c r="H91" s="4">
+        <v>5</v>
+      </c>
+      <c r="I91" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+      <c r="A92" s="4">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C92">
-        <v>2000</v>
-      </c>
-      <c r="D92" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="C92" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F92" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="H92">
-        <v>5</v>
-      </c>
-      <c r="I92">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="G92" s="4">
+        <v>1</v>
+      </c>
+      <c r="H92" s="4">
+        <v>5</v>
+      </c>
+      <c r="I92" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+      <c r="A93" s="4">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C93">
-        <v>2000</v>
-      </c>
-      <c r="D93" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="C93" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F93" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-      <c r="H93">
-        <v>5</v>
-      </c>
-      <c r="I93">
+      <c r="G93" s="4">
+        <v>1</v>
+      </c>
+      <c r="H93" s="4">
+        <v>5</v>
+      </c>
+      <c r="I93" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+      <c r="A94" s="4">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C94">
-        <v>2000</v>
-      </c>
-      <c r="D94" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="C94" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F94" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="4">
         <v>2</v>
       </c>
-      <c r="H94">
-        <v>5</v>
-      </c>
-      <c r="I94">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="H94" s="4">
+        <v>5</v>
+      </c>
+      <c r="I94" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+      <c r="A95" s="4">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C95">
-        <v>2000</v>
-      </c>
-      <c r="D95" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="C95" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F95" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="4">
         <v>3</v>
       </c>
-      <c r="H95">
-        <v>5</v>
-      </c>
-      <c r="I95">
+      <c r="H95" s="4">
+        <v>5</v>
+      </c>
+      <c r="I95" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+      <c r="A96" s="4">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C96">
-        <v>2000</v>
-      </c>
-      <c r="D96" t="s">
-        <v>10</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="C96" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F96" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
-      <c r="H96">
+      <c r="G96" s="4">
+        <v>1</v>
+      </c>
+      <c r="H96" s="4">
         <v>4</v>
       </c>
-      <c r="I96">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="I96" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+      <c r="A97" s="4">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C97">
-        <v>2000</v>
-      </c>
-      <c r="D97" t="s">
-        <v>10</v>
-      </c>
-      <c r="E97" s="1" t="s">
+      <c r="C97" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F97" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <v>5</v>
-      </c>
-      <c r="I97">
+      <c r="G97" s="4">
+        <v>1</v>
+      </c>
+      <c r="H97" s="4">
+        <v>5</v>
+      </c>
+      <c r="I97" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+      <c r="A98" s="4">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C98">
-        <v>2000</v>
-      </c>
-      <c r="D98" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="C98" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F98" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-      <c r="H98">
+      <c r="G98" s="4">
+        <v>1</v>
+      </c>
+      <c r="H98" s="4">
         <v>4</v>
       </c>
-      <c r="I98">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="I98" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+      <c r="A99" s="4">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C99">
-        <v>2000</v>
-      </c>
-      <c r="D99" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="C99" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F99" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-      <c r="H99">
-        <v>5</v>
-      </c>
-      <c r="I99">
+      <c r="G99" s="4">
+        <v>1</v>
+      </c>
+      <c r="H99" s="4">
+        <v>5</v>
+      </c>
+      <c r="I99" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="360" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+      <c r="A100" s="4">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C100">
-        <v>2000</v>
-      </c>
-      <c r="D100" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="C100" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F100" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-      <c r="H100">
+      <c r="G100" s="4">
+        <v>1</v>
+      </c>
+      <c r="H100" s="4">
         <v>4</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+      <c r="A101" s="4">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C101">
-        <v>2000</v>
-      </c>
-      <c r="D101" t="s">
-        <v>10</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="C101" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F101" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="G101">
-        <v>1</v>
-      </c>
-      <c r="H101">
-        <v>5</v>
-      </c>
-      <c r="I101">
+      <c r="G101" s="4">
+        <v>1</v>
+      </c>
+      <c r="H101" s="4">
+        <v>5</v>
+      </c>
+      <c r="I101" s="4">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I101"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004D7C3F24DE59EE45BFD2EBFCC4EEC06B" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7d150f804cfd549e219f8d39d8b524b8">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="33713149-ad27-48be-b5c8-d6c2155ad022" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="46db0459e1f62325c2994e9e19fab219" ns2:_="">
-    <xsd:import namespace="33713149-ad27-48be-b5c8-d6c2155ad022"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="33713149-ad27-48be-b5c8-d6c2155ad022" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76C41542-9B09-4612-B0B7-40E0731B5416}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC5647AD-A526-4339-95FB-632C7C967B18}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="33713149-ad27-48be-b5c8-d6c2155ad022"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{707AC01A-9CCD-40B7-AB2C-79006ED1711C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="33713149-ad27-48be-b5c8-d6c2155ad022"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>